--- a/delta2/lib_e/winlol.xlsx
+++ b/delta2/lib_e/winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2FC037-F2C9-6641-B0C0-D8A914B0F4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA836D3-8E24-F94D-BA3F-AF95D548011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-21100" windowWidth="38320" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>evidence_object</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>["comsvcs-pid0001", "rundll-pid0001", "lsass-pid0001"]</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>map_did</t>
+  </si>
+  <si>
+    <t>process_create-windows_any</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -287,14 +302,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E24" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="5">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G24" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{35186139-C8B2-9B45-B768-C0989B7CF523}" name="map_did" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4B1DAD83-6367-A848-AD2B-EBAC2D7F059C}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -617,23 +634,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5" customWidth="1"/>
-    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
+    <col min="6" max="6" width="143.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -641,16 +659,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,16 +682,20 @@
         <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -675,16 +703,20 @@
         <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -692,16 +724,20 @@
         <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -709,16 +745,20 @@
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -726,16 +766,20 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -743,16 +787,20 @@
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -760,16 +808,20 @@
         <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -777,16 +829,20 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -794,16 +850,20 @@
         <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -811,16 +871,20 @@
         <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -828,16 +892,20 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -845,16 +913,20 @@
         <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -862,16 +934,20 @@
         <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -879,16 +955,20 @@
         <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -896,16 +976,20 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -913,16 +997,20 @@
         <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -930,16 +1018,20 @@
         <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -947,16 +1039,20 @@
         <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -964,16 +1060,20 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -981,16 +1081,20 @@
         <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -998,16 +1102,20 @@
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1015,16 +1123,20 @@
         <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -1032,14 +1144,18 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/winlol.xlsx
+++ b/delta2/lib_e/winlol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA836D3-8E24-F94D-BA3F-AF95D548011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC3A80-05D6-3949-ACB8-D798F33366BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="-21100" windowWidth="38320" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -38,27 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
-    <t>evidence_object</t>
-  </si>
-  <si>
-    <t>non_standard_meta</t>
-  </si>
-  <si>
     <t>eid</t>
   </si>
   <si>
-    <t>source_type</t>
-  </si>
-  <si>
     <t>map_pid</t>
   </si>
   <si>
     <t>winlol-eid0001</t>
   </si>
   <si>
-    <t>open source intel report</t>
-  </si>
-  <si>
     <t>{"date": "2021-06-23" , "url": "https://gist.github.com/JohnLaTwC/3e7dd4cd8520467df179e93fb44a434e"}</t>
   </si>
   <si>
@@ -213,6 +201,18 @@
   </si>
   <si>
     <t>process_create-windows_any</t>
+  </si>
+  <si>
+    <t>eid_type</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>ne_meta</t>
   </si>
 </sst>
 </file>
@@ -308,10 +308,10 @@
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{35186139-C8B2-9B45-B768-C0989B7CF523}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4B1DAD83-6367-A848-AD2B-EBAC2D7F059C}" name="description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4B1DAD83-6367-A848-AD2B-EBAC2D7F059C}" name="description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{033C4CAC-0BAC-E34E-9C77-69055D37A90F}" name="ne_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,7 +638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C24"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,516 +646,517 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5" customWidth="1"/>
-    <col min="6" max="6" width="143.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
+    <col min="7" max="7" width="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
